--- a/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Serie</t>
   </si>
@@ -464,6 +464,81 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -821,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2826,6 +2901,329 @@
         <v>2.86</v>
       </c>
     </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147">
+        <v>3.14</v>
+      </c>
+      <c r="D147">
+        <v>2.95</v>
+      </c>
+      <c r="E147">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148">
+        <v>3.23</v>
+      </c>
+      <c r="D148">
+        <v>2.96</v>
+      </c>
+      <c r="E148">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149">
+        <v>3.28</v>
+      </c>
+      <c r="D149">
+        <v>2.98</v>
+      </c>
+      <c r="E149">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150">
+        <v>3.31</v>
+      </c>
+      <c r="D150">
+        <v>2.99</v>
+      </c>
+      <c r="E150">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151">
+        <v>3.59</v>
+      </c>
+      <c r="D151">
+        <v>3.16</v>
+      </c>
+      <c r="E151">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152">
+        <v>3.15</v>
+      </c>
+      <c r="E152">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153">
+        <v>3.56</v>
+      </c>
+      <c r="D153">
+        <v>3.13</v>
+      </c>
+      <c r="E153">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154">
+        <v>3.82</v>
+      </c>
+      <c r="D154">
+        <v>3.25</v>
+      </c>
+      <c r="E154">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155">
+        <v>4.02</v>
+      </c>
+      <c r="D155">
+        <v>3.34</v>
+      </c>
+      <c r="E155">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156">
+        <v>3.4</v>
+      </c>
+      <c r="E156">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157">
+        <v>4.17</v>
+      </c>
+      <c r="D157">
+        <v>3.46</v>
+      </c>
+      <c r="E157">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158">
+        <v>3.42</v>
+      </c>
+      <c r="E158">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159">
+        <v>4.32</v>
+      </c>
+      <c r="D159">
+        <v>3.4</v>
+      </c>
+      <c r="E159">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160">
+        <v>4.28</v>
+      </c>
+      <c r="D160">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161">
+        <v>4.31</v>
+      </c>
+      <c r="D161">
+        <v>3.41</v>
+      </c>
+      <c r="E161">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162">
+        <v>4.24</v>
+      </c>
+      <c r="D162">
+        <v>3.36</v>
+      </c>
+      <c r="E162">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163">
+        <v>3.37</v>
+      </c>
+      <c r="E163">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164">
+        <v>3.38</v>
+      </c>
+      <c r="E164">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165">
+        <v>3.35</v>
+      </c>
+      <c r="E165">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166">
+        <v>3.39</v>
+      </c>
+      <c r="E166">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167">
+        <v>4.34</v>
+      </c>
+      <c r="E167">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="C168">
+        <v>4.4</v>
+      </c>
+      <c r="D168">
+        <v>3.46</v>
+      </c>
+      <c r="E168">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169">
+        <v>4.85</v>
+      </c>
+      <c r="D169">
+        <v>3.71</v>
+      </c>
+      <c r="E169">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170">
+        <v>4.72</v>
+      </c>
+      <c r="D170">
+        <v>3.47</v>
+      </c>
+      <c r="E170">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171">
+        <v>4.41</v>
+      </c>
+      <c r="D171">
+        <v>3.4</v>
+      </c>
+      <c r="E171">
+        <v>3.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Serie</t>
   </si>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
   </si>
 </sst>
 </file>
@@ -896,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3224,6 +3236,47 @@
         <v>3.18</v>
       </c>
     </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="E173">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174">
+        <v>4.56</v>
+      </c>
+      <c r="D174">
+        <v>3.44</v>
+      </c>
+      <c r="E174">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175">
+        <v>4.92</v>
+      </c>
+      <c r="D175">
+        <v>3.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -551,6 +551,18 @@
   </si>
   <si>
     <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -908,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3277,6 +3289,56 @@
         <v>3.33</v>
       </c>
     </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176">
+        <v>3.43</v>
+      </c>
+      <c r="E176">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177">
+        <v>4.51</v>
+      </c>
+      <c r="D177">
+        <v>3.54</v>
+      </c>
+      <c r="E177">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178">
+        <v>4.53</v>
+      </c>
+      <c r="D178">
+        <v>3.71</v>
+      </c>
+      <c r="E178">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179">
+        <v>4.62</v>
+      </c>
+      <c r="E179">
+        <v>3.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,21 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3339,6 +3354,67 @@
         <v>3.26</v>
       </c>
     </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180">
+        <v>4.66</v>
+      </c>
+      <c r="D180">
+        <v>3.57</v>
+      </c>
+      <c r="E180">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181">
+        <v>4.5</v>
+      </c>
+      <c r="E181">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="E182">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="C183">
+        <v>4.5</v>
+      </c>
+      <c r="D183">
+        <v>3.37</v>
+      </c>
+      <c r="E183">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184">
+        <v>4.52</v>
+      </c>
+      <c r="D184">
+        <v>3.42</v>
+      </c>
+      <c r="E184">
+        <v>3.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,21 @@
   </si>
   <si>
     <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3415,6 +3430,70 @@
         <v>3.27</v>
       </c>
     </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185">
+        <v>3.39</v>
+      </c>
+      <c r="E185">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186">
+        <v>4.61</v>
+      </c>
+      <c r="D186">
+        <v>3.5</v>
+      </c>
+      <c r="E186">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187">
+        <v>4.36</v>
+      </c>
+      <c r="D187">
+        <v>3.52</v>
+      </c>
+      <c r="E187">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188">
+        <v>4.48</v>
+      </c>
+      <c r="D188">
+        <v>3.65</v>
+      </c>
+      <c r="E188">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="C189">
+        <v>4.35</v>
+      </c>
+      <c r="E189">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Serie</t>
   </si>
@@ -593,6 +593,21 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -950,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3494,6 +3509,64 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="C190">
+        <v>4.2</v>
+      </c>
+      <c r="E190">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191">
+        <v>4.28</v>
+      </c>
+      <c r="D191">
+        <v>3.41</v>
+      </c>
+      <c r="E191">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="E192">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="C193">
+        <v>4.22</v>
+      </c>
+      <c r="D193">
+        <v>3.46</v>
+      </c>
+      <c r="E193">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="D194">
+        <v>3.41</v>
+      </c>
+      <c r="E194">
+        <v>3.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Serie</t>
   </si>
@@ -608,6 +608,33 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
   </si>
 </sst>
 </file>
@@ -965,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3567,6 +3594,120 @@
         <v>3.27</v>
       </c>
     </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195">
+        <v>3.46</v>
+      </c>
+      <c r="E195">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196">
+        <v>4.42</v>
+      </c>
+      <c r="D196">
+        <v>3.43</v>
+      </c>
+      <c r="E196">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="C197">
+        <v>4.49</v>
+      </c>
+      <c r="D197">
+        <v>3.39</v>
+      </c>
+      <c r="E197">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="C198">
+        <v>4.5</v>
+      </c>
+      <c r="D198">
+        <v>3.38</v>
+      </c>
+      <c r="E198">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="E199">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="C200">
+        <v>4.63</v>
+      </c>
+      <c r="D200">
+        <v>3.38</v>
+      </c>
+      <c r="E200">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="C201">
+        <v>4.6</v>
+      </c>
+      <c r="D201">
+        <v>3.35</v>
+      </c>
+      <c r="E201">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="D202">
+        <v>3.41</v>
+      </c>
+      <c r="E202">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="C203">
+        <v>4.62</v>
+      </c>
+      <c r="D203">
+        <v>3.48</v>
+      </c>
+      <c r="E203">
+        <v>3.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Serie</t>
   </si>
@@ -635,6 +635,21 @@
   </si>
   <si>
     <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3708,6 +3723,67 @@
         <v>3.33</v>
       </c>
     </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="C204">
+        <v>4.77</v>
+      </c>
+      <c r="D204">
+        <v>3.46</v>
+      </c>
+      <c r="E204">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="D205">
+        <v>3.65</v>
+      </c>
+      <c r="E205">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="D206">
+        <v>3.61</v>
+      </c>
+      <c r="E206">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207">
+        <v>5.28</v>
+      </c>
+      <c r="D207">
+        <v>3.71</v>
+      </c>
+      <c r="E207">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="D208">
+        <v>3.66</v>
+      </c>
+      <c r="E208">
+        <v>3.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -650,6 +650,18 @@
   </si>
   <si>
     <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3784,6 +3796,56 @@
         <v>3.53</v>
       </c>
     </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="D209">
+        <v>3.58</v>
+      </c>
+      <c r="E209">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="C210">
+        <v>5.26</v>
+      </c>
+      <c r="D210">
+        <v>3.59</v>
+      </c>
+      <c r="E210">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="D211">
+        <v>3.6</v>
+      </c>
+      <c r="E211">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212">
+        <v>5.56</v>
+      </c>
+      <c r="D212">
+        <v>3.67</v>
+      </c>
+      <c r="E212">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
